--- a/biology/Botanique/Roupala_montana/Roupala_montana.xlsx
+++ b/biology/Botanique/Roupala_montana/Roupala_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roupala montana est une espèce de plantes à fleurs de la famille des Proteaceae (famille du noyer du Queensland). Il s'agit de l'espèce type du genre Roupala Aubl.. C'est un arbre endémique du plateau des Guyanes. Cette espèce serait très souvent confondue dans la littérature avec Roupala pyrifolia Knight, 1809 qui présente une vaste répartition néotropicale.
-Il est connu au Venezuela sous les noms de Carne asada, Horca, Horca mandingo, Mandingo[3].
-En Guyane le nom de Roupale serait utilisé[4].
-Au Brésil, on l'appelle Carvalho-do-Cerrado[5], ou Carne de vaca[6].
+Il est connu au Venezuela sous les noms de Carne asada, Horca, Horca mandingo, Mandingo.
+En Guyane le nom de Roupale serait utilisé.
+Au Brésil, on l'appelle Carvalho-do-Cerrado, ou Carne de vaca.
 </t>
         </is>
       </c>
@@ -514,14 +526,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roupala montana est un arbre ou un arbuste atteignant 15 m de haut.
 Les tiges, pétioles et la face inférieure des limbes sont brun clair, avec des à poils courts devenant rapidement glabrescents à glabres.
 L'écorce est généralement de couleur brun clair à l'état jeune, devenant gris foncé violet foncé à gris-rouge ou brun-rouge après pelage de la couche externe.
 On observe de nombreuses lenticelles, généralement peu visibles.
 Lorsqu'elles sont coupées, les jeunes branches dégagent une odeur rappelant les conserves de thon à l'huile, ou de corned-beef.
-Le bois est dur et lourd (dentité : 0,80), de couleur brun violacé, à maille très large et plus claire[7].
+Le bois est dur et lourd (dentité : 0,80), de couleur brun violacé, à maille très large et plus claire.
 Les feuilles aiguës à acuminées à l'apex, sont souvent hétéromorphes (simples ou composées pennées).
 Le limbe est chartacé à très rigide-coriace, de couleur vert gris pâle, devenant glauque à brun moyen au séchage, glabrescent peu poilu (les poils sont souvent persistants le long de la base de la nervure médiane, sur la face inférieure.
 Les feuilles des plantes matures sont généralement simples (rarement composées), ovales, et mesurent 4–14 × 2–9 cm (rapport longueur/largeur : 1,2-3/1).
@@ -557,7 +571,7 @@
 Les côtés sont suturés et non suturés courbés de manière égale ou côté suturé courbé plus fortement.
 L'apex est resserré ou non à 4 mm, y compris la base du style persistant, droite ou courbée jusqu'à perpendiculaire au côté non suturé.
 La nervation marginale est plus ou moins visible en surface, parfois brun clair à brun foncé.
-Les graines mesurent 1,8-2,5 x 0,5-1 mm[3],[4].
+Les graines mesurent 1,8-2,5 x 0,5-1 mm,.
 </t>
         </is>
       </c>
@@ -586,7 +600,9 @@
           <t>Taxons infra-spécifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On reconnaît 4 variétés au sein de l'espèce Roupala montana :
 Roupala montana var. brasiliensis (Klotzsch) K.S.Edwards
@@ -620,10 +636,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après certains auteurs, Roupala montana serait plutôt sub-endémique du plateau des Guyanes : Guyane (montagne des Chevaux), Suriname (Lucie river), Guyana, et Guyane vénézuélienne (Bolívar, T.F. Amazonas)[8].
-L'espèce à vaste répartition néotropicale avec laquelle elle serait confondue correspondrait en fait à Roupala pyrifolia Knight, 1809 : depuis le Mexique, à travers l'Amérique centrale, Trinidad et Tobago, et répandu en Amérique du Sud jusqu'au sud du Brésil, la Bolivie, l'Argentine et le Paraguay[4]. Il est commun dans la Cordillère côtière, les Llanos et la base des Andes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après certains auteurs, Roupala montana serait plutôt sub-endémique du plateau des Guyanes : Guyane (montagne des Chevaux), Suriname (Lucie river), Guyana, et Guyane vénézuélienne (Bolívar, T.F. Amazonas).
+L'espèce à vaste répartition néotropicale avec laquelle elle serait confondue correspondrait en fait à Roupala pyrifolia Knight, 1809 : depuis le Mexique, à travers l'Amérique centrale, Trinidad et Tobago, et répandu en Amérique du Sud jusqu'au sud du Brésil, la Bolivie, l'Argentine et le Paraguay. Il est commun dans la Cordillère côtière, les Llanos et la base des Andes.
 </t>
         </is>
       </c>
@@ -652,23 +670,25 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>On rencontre Roupala montana au Venezuela dans les savanes sèches ouvertes ou arbustives, souvent associé à Curatella, Bowdichia et Byrsonima crassa, en bordures des affleurements granitiques, et dans les forêts galeries, autour de 50–1 300 m d'altitude[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On rencontre Roupala montana au Venezuela dans les savanes sèches ouvertes ou arbustives, souvent associé à Curatella, Bowdichia et Byrsonima crassa, en bordures des affleurements granitiques, et dans les forêts galeries, autour de 50–1 300 m d'altitude.
 Il est présent dans les forêts primaires et secondaires humides, tropicales, sempervirentes à sèches, à feuilles caduques et les habitats de savane herbeuse ouverte, également dans les forêts galeries et les vestiges forestiers.
-Dans la région des Guyane, il fleurit principalement entre septembre et mai, et fructifie plutôt en juin et juillet[4].
-Soixante-deux espèces de lépidoptères (22 familles) consomment les feuilles Roupala montana (probablement Roupala pyrifolia Knight, 1809), dont 26 exclusives, parmi lesquelles Chlamydastis platyspora (Meyrick) (Elachistidae)[9], Stenoma cathosiota Meyrick (Elachistidae), Idalus prop. sublineata (Rothschild) (Arctiidae) et Eomichla sp. (Oecophoridae)[10],[11],[12],[13].
-On trouve Goniotherma sp. parmi les arthropodes de la litière de Roupala montana (probablement Roupala pyrifolia Knight, 1809)[14].
+Dans la région des Guyane, il fleurit principalement entre septembre et mai, et fructifie plutôt en juin et juillet.
+Soixante-deux espèces de lépidoptères (22 familles) consomment les feuilles Roupala montana (probablement Roupala pyrifolia Knight, 1809), dont 26 exclusives, parmi lesquelles Chlamydastis platyspora (Meyrick) (Elachistidae), Stenoma cathosiota Meyrick (Elachistidae), Idalus prop. sublineata (Rothschild) (Arctiidae) et Eomichla sp. (Oecophoridae).
+On trouve Goniotherma sp. parmi les arthropodes de la litière de Roupala montana (probablement Roupala pyrifolia Knight, 1809).
 Divers aspects de Roupala montana (probablement Roupala pyrifolia Knight, 1809) ont été étudiés :
-la structure de ses populations selon la fragmentation des habitats dans le cerrado (État de São Paulo)[15],
-sa régénération naturelle dans les forêts-galeries de la Reserva Ecológica de la Fazenda Água Limpa de l'Université de Brasília[16],
-ses échanges gazeux, son activité photosynthétique, et ses relations hydriques[17],[18],
-ses effets létaux modérés sur Schistosoma mansoni par son anti-génotoxicité[19],
-la polymorphie de ses marqueurs microsatellites nucléaires[20],
-l'avortement et la prédation de ses graines avant leur dissémination[21],
-ses mycorhizes arbusculaires et l'absence de ses racines en grappes[22],[23],
-sa sylviculture[5],
-sa sélection génétique quantitative et moléculaire[24],</t>
+la structure de ses populations selon la fragmentation des habitats dans le cerrado (État de São Paulo),
+sa régénération naturelle dans les forêts-galeries de la Reserva Ecológica de la Fazenda Água Limpa de l'Université de Brasília,
+ses échanges gazeux, son activité photosynthétique, et ses relations hydriques
+ses effets létaux modérés sur Schistosoma mansoni par son anti-génotoxicité,
+la polymorphie de ses marqueurs microsatellites nucléaires,
+l'avortement et la prédation de ses graines avant leur dissémination,
+ses mycorhizes arbusculaires et l'absence de ses racines en grappes
+sa sylviculture,
+sa sélection génétique quantitative et moléculaire,</t>
         </is>
       </c>
     </row>
@@ -696,17 +716,19 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Roupala montana est une plante mellifère dont le pollen est également récolté en apiculture.
 Au Brésil, ses branches sèches, feuilles et fruits composent les compositions florales appelées « flores do planalto » vendues dans les foires à Brasília.
 Son bois peut être utilisé dans la construction civile, pour la fabrication de meubles, d'objets ménagers décoratifs, tournés et en placages.
 Il fournit un bois de chauffage et un charbon de bonne qualité.
-Il est préconisé de planter Roupala montana pour la restauration écosystémique de milieux ripicoles ou des milieux non inondables, et dans les ravins du Minas Gerais[5].
-Roupala montana (probablement Roupala pyrifolia Knight, 1809) est utilisé au Brésil comme antithermique et antiseptique dans le traitement des plaies et des ulcères. Il présente un potentiel antimicrobien et antimutagène, sans propriétés mutagènes ou cytotoxiques, et contient des flavonoïdes glycosylés[6].
-Roupala montana (probablement Roupala pyrifolia Knight, 1809) présente des activités anti-inflammatoires[25].
-Les extraits des résidus de bois de Roupala montana (probablement Roupala pyrifolia Knight, 1809) contiennent du (Z)-5-undéc-3-énylrésorcinol (composés phénoliques avec de nombreuses applications biologiques)[26].
-L'extrait des feuilles de Roupala montana (probablement Roupala pyrifolia Knight, 1809) contient du Kaur-16-ène, de l'acide linolénique et de l'alpha tocophérol. On a identifié 15 composés dans l'huile essentielle de la plante sèche dont kaur-16-ène (77,2%), Kaur-15-ène (4,1%), phytol (3,45%), Nérolidol (2,22%), et Farnésyl acétone (1,2%)[27], et la synthèse du trans-2-(trans-1-cis-3-hexadiényl)-5-méthyltétrahydrofurane a été étudiée[28].
+Il est préconisé de planter Roupala montana pour la restauration écosystémique de milieux ripicoles ou des milieux non inondables, et dans les ravins du Minas Gerais.
+Roupala montana (probablement Roupala pyrifolia Knight, 1809) est utilisé au Brésil comme antithermique et antiseptique dans le traitement des plaies et des ulcères. Il présente un potentiel antimicrobien et antimutagène, sans propriétés mutagènes ou cytotoxiques, et contient des flavonoïdes glycosylés.
+Roupala montana (probablement Roupala pyrifolia Knight, 1809) présente des activités anti-inflammatoires.
+Les extraits des résidus de bois de Roupala montana (probablement Roupala pyrifolia Knight, 1809) contiennent du (Z)-5-undéc-3-énylrésorcinol (composés phénoliques avec de nombreuses applications biologiques).
+L'extrait des feuilles de Roupala montana (probablement Roupala pyrifolia Knight, 1809) contient du Kaur-16-ène, de l'acide linolénique et de l'alpha tocophérol. On a identifié 15 composés dans l'huile essentielle de la plante sèche dont kaur-16-ène (77,2%), Kaur-15-ène (4,1%), phytol (3,45%), Nérolidol (2,22%), et Farnésyl acétone (1,2%), et la synthèse du trans-2-(trans-1-cis-3-hexadiényl)-5-méthyltétrahydrofurane a été étudiée.
 </t>
         </is>
       </c>
@@ -735,9 +757,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[29] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « ROUPALA montana. (Tabula 32.)
 Frutex plures ramos è caudice tri vel quadri-pollicati emittens ; folia alterna, petiolaca, rigida, ovata, acuta, integerrima ; limbis ſursùm revolutis, quaſi canaliculatis. Flores ſpicati ; ſpicis ſolitariis, axillaribus, &amp; terminalibus ; bini ſemper ſeſſiles, alternatim poſiti. Corolla tetrapetala; petalis ſubtùs villoſis, luteis, ſupernè candicantibus.
 Cortex trunci, ramorum &amp; lignum, fœtidum odorem exhalant.
